--- a/09_pandasData/score.xlsx
+++ b/09_pandasData/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>총합</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>키</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>국어</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>영어</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>과학</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>사회</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>학년</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>결과</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SW특기</t>
         </is>
@@ -502,24 +517,35 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>455</v>
+      </c>
+      <c r="E2" t="n">
         <v>197</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>85</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>95</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>85</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -542,24 +568,35 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>205</v>
+      </c>
+      <c r="E3" t="n">
         <v>184</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>40</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>35</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>50</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>55</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>25</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Java</t>
         </is>
@@ -582,24 +619,35 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>380</v>
+      </c>
+      <c r="E4" t="n">
         <v>168</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>80</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>75</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>70</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>80</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>75</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Javascript</t>
         </is>
@@ -622,24 +670,35 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>325</v>
+      </c>
+      <c r="E5" t="n">
         <v>187</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>40</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>60</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>70</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>75</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>80</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -658,24 +717,35 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" t="n">
         <v>188</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>20</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>10</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>35</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>10</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -694,24 +764,35 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>440</v>
+      </c>
+      <c r="E7" t="n">
         <v>202</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>80</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>100</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>95</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>85</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>80</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -734,24 +815,35 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>240</v>
+      </c>
+      <c r="E8" t="n">
         <v>188</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>55</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>65</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>45</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>40</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>35</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>PYTHON</t>
         </is>
@@ -774,24 +866,35 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>465</v>
+      </c>
+      <c r="E9" t="n">
         <v>190</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>100</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>85</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>90</v>
-      </c>
-      <c r="H9" t="n">
-        <v>95</v>
       </c>
       <c r="I9" t="n">
         <v>95</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>C#</t>
         </is>
